--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.544</v>
+        <v>-12.338</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.086</v>
+        <v>5.695</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.223999999999999</v>
+        <v>-7.256</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.530000000000001</v>
+        <v>-7.192</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.968</v>
+        <v>5.857</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.464</v>
+        <v>9.643000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.99</v>
+        <v>8.004999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.462000000000001</v>
+        <v>-7.524000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.434</v>
+        <v>5.531000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>-14.52</v>
+        <v>-13.499</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.944</v>
+        <v>-8.307</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.726</v>
+        <v>6.263</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-13.055</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.843999999999999</v>
+        <v>5.372999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.704</v>
+        <v>-13.016</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.847</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.032</v>
+        <v>-11.25</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.290000000000001</v>
+        <v>-7.92</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.12</v>
+        <v>-11.701</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.48</v>
+        <v>-11.221</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,13 +1332,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.648000000000001</v>
+        <v>6.383</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.75</v>
+        <v>-6.994</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.476</v>
+        <v>-13.748</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.088</v>
+        <v>-12.753</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.606</v>
+        <v>5.178</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.468</v>
+        <v>-13.716</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.634</v>
+        <v>-8.404999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.32</v>
+        <v>4.714</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.742</v>
+        <v>-7.822</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.524000000000001</v>
+        <v>-7.522</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.407999999999999</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.213000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.176</v>
+        <v>-12.654</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.82</v>
+        <v>5.771</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.481999999999999</v>
+        <v>5.702000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.290000000000001</v>
+        <v>-8.205</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.016</v>
+        <v>-11.12</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.474</v>
+        <v>-12.91</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.146</v>
+        <v>5.545</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.964</v>
+        <v>-11.223</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.82</v>
+        <v>5.589</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.651999999999999</v>
+        <v>-8.486000000000001</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.68</v>
+        <v>-8.409000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.778</v>
+        <v>-7.958000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
